--- a/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T15:05:54+00:00</t>
+    <t>2026-01-05T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:47:03+00:00</t>
+    <t>2026-01-07T15:20:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T15:20:53+00:00</t>
+    <t>2026-01-07T21:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:00:10+00:00</t>
+    <t>2026-01-14T15:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Entrée Acte</t>
+    <t>Acte</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -351,7 +351,7 @@
 </t>
   </si>
   <si>
-    <t>Auteur: Si différent de celui de l’entête</t>
+    <t>Auteur</t>
   </si>
   <si>
     <t>fr-lm-acte.informateur</t>
@@ -361,7 +361,7 @@
 </t>
   </si>
   <si>
-    <t>Informateur: Si différent de celui de l’entête</t>
+    <t>Informateur</t>
   </si>
   <si>
     <t>fr-lm-acte.participant</t>
@@ -371,7 +371,7 @@
 </t>
   </si>
   <si>
-    <t>Participant: Si différent de celui de l’entête</t>
+    <t>Participant</t>
   </si>
   <si>
     <t>fr-lm-acte.circonstances</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:34:52+00:00</t>
+    <t>2026-01-16T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-acte.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:41:46+00:00</t>
+    <t>2026-01-16T14:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
